--- a/Restaurants_Vallah_SJ/Documentation/220_Scrum Backlog.110_Sebastian_Joel.xlsx
+++ b/Restaurants_Vallah_SJ/Documentation/220_Scrum Backlog.110_Sebastian_Joel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Produktbacklog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Priorisierung</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>US 9</t>
+  </si>
+  <si>
+    <t>Seb</t>
+  </si>
+  <si>
+    <t>Joel</t>
   </si>
 </sst>
 </file>
@@ -233,7 +239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +255,30 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -298,7 +328,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -312,6 +342,9 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -324,6 +357,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % - Akzent1" xfId="5" builtinId="30"/>
@@ -537,13 +571,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>52</c:v>
@@ -1592,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M24" sqref="M23:M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,7 +1640,7 @@
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -1629,99 +1663,102 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="13">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="13">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="13">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13">
+        <v>5</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="13">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13">
+        <v>8</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18">
+        <v>5</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="G5" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1743,8 +1780,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K6" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1767,102 +1807,102 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="12">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="12">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="13">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="13">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="11">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11"/>
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12"/>
       <c r="D12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13"/>
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14"/>
       <c r="D14"/>
       <c r="F14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15"/>
       <c r="D15"/>
       <c r="F15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16"/>
       <c r="D16"/>
       <c r="F16" t="s">
@@ -1874,15 +1914,15 @@
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
@@ -1901,44 +1941,44 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="10">
         <f ca="1">SUMIF(Tabelle2[Status], "Open", D2:D6)</f>
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="5">
         <f ca="1">SUMIF(Tabelle2[Status], "Done", D2:D6)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="5">
         <f ca="1">SUMIF(Tabelle2[Status], "InProgress", D2:D6)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="10">
         <f>SUM(Tabelle2[Story Points])</f>
         <v>52</v>
@@ -2086,13 +2126,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2155,30 +2195,30 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="7">
         <v>42370</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="8">
         <v>42403</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="9">
         <f>C21-C20</f>
         <v>33</v>

--- a/Restaurants_Vallah_SJ/Documentation/220_Scrum Backlog.110_Sebastian_Joel.xlsx
+++ b/Restaurants_Vallah_SJ/Documentation/220_Scrum Backlog.110_Sebastian_Joel.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Priorisierung</t>
   </si>
@@ -177,12 +177,6 @@
   </si>
   <si>
     <t>US 9</t>
-  </si>
-  <si>
-    <t>Seb</t>
-  </si>
-  <si>
-    <t>Joel</t>
   </si>
 </sst>
 </file>
@@ -239,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,18 +249,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -328,7 +310,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -344,7 +326,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -357,7 +338,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % - Akzent1" xfId="5" builtinId="30"/>
@@ -571,13 +552,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>52</c:v>
@@ -1629,7 +1610,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,99 +1645,99 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <v>4</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="11">
         <v>5</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>3</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <v>5</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <v>1</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>50</v>
-      </c>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>3</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>8</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <v>1</v>
       </c>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="12">
         <v>5</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="12">
         <v>1</v>
       </c>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1780,76 +1761,74 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="11">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>3</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>3</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="F8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>5</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1870,7 +1849,7 @@
         <v>46</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G10" s="11">
         <v>2</v>
@@ -1914,15 +1893,15 @@
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
@@ -1941,44 +1920,44 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="10">
         <f ca="1">SUMIF(Tabelle2[Status], "Open", D2:D6)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="5">
         <f ca="1">SUMIF(Tabelle2[Status], "Done", D2:D6)</f>
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="5">
         <f ca="1">SUMIF(Tabelle2[Status], "InProgress", D2:D6)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="10">
         <f>SUM(Tabelle2[Story Points])</f>
         <v>52</v>
@@ -2126,13 +2105,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2195,30 +2174,30 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="7">
         <v>42370</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="8">
         <v>42403</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="9">
         <f>C21-C20</f>
         <v>33</v>
